--- a/7. Statistic Analysis/Results/Java/Tools/Wilcoxon - acs.xlsx
+++ b/7. Statistic Analysis/Results/Java/Tools/Wilcoxon - acs.xlsx
@@ -14,7 +14,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve"><![CDATA[Valid]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[T]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[Z]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[p-value]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex & MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands & NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators & NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators & NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize & VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel & DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel & ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement & TimeToImplement]]></t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,239 +404,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.596372" customWidth="1"/>
-    <col min="2" max="2" width="9.593605" customWidth="1"/>
+    <col min="1" max="1" width="54.552101" customWidth="1"/>
+    <col min="2" max="2" width="6.596372" customWidth="1"/>
     <col min="3" max="3" width="9.593605" customWidth="1"/>
     <col min="4" max="4" width="9.593605" customWidth="1"/>
+    <col min="5" max="5" width="9.593605" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n" s="0">
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
         <v>51</v>
       </c>
-      <c r="B1" t="n" s="0">
+      <c r="C2" t="n" s="0">
         <v>522.000000</v>
       </c>
-      <c r="C1" t="n" s="0">
+      <c r="D2" t="n" s="0">
         <v>1.321659</v>
       </c>
-      <c r="D1" t="n" s="0">
+      <c r="E2" t="n" s="0">
         <v>0.186283</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>70</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="C3" t="n" s="0">
         <v>1240.000000</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="D3" t="n" s="0">
         <v>0.014630</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="E3" t="n" s="0">
         <v>0.988327</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n" s="0">
         <v>51</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="C4" t="n" s="0">
         <v>511.500000</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="D4" t="n" s="0">
         <v>1.420080</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="E4" t="n" s="0">
         <v>0.155585</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n" s="0">
         <v>55</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="C5" t="n" s="0">
         <v>674.000000</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="D5" t="n" s="0">
         <v>0.804341</v>
       </c>
-      <c r="D4" t="n" s="0">
+      <c r="E5" t="n" s="0">
         <v>0.421201</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n" s="0">
         <v>70</v>
       </c>
-      <c r="B5" t="n" s="0">
+      <c r="C6" t="n" s="0">
         <v>989.000000</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="D6" t="n" s="0">
         <v>1.483528</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="E6" t="n" s="0">
         <v>0.137935</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n" s="0">
         <v>58</v>
       </c>
-      <c r="B6" t="n" s="0">
+      <c r="C7" t="n" s="0">
         <v>777.000000</v>
       </c>
-      <c r="C6" t="n" s="0">
+      <c r="D7" t="n" s="0">
         <v>0.607774</v>
       </c>
-      <c r="D6" t="n" s="0">
+      <c r="E7" t="n" s="0">
         <v>0.543338</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n" s="0">
         <v>42</v>
       </c>
-      <c r="B7" t="n" s="0">
+      <c r="C8" t="n" s="0">
         <v>314.000000</v>
       </c>
-      <c r="C7" t="n" s="0">
+      <c r="D8" t="n" s="0">
         <v>1.719254</v>
       </c>
-      <c r="D7" t="n" s="0">
+      <c r="E8" t="n" s="0">
         <v>0.085569</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n" s="0">
         <v>70</v>
       </c>
-      <c r="B8" t="n" s="0">
+      <c r="C9" t="n" s="0">
         <v>1205.000000</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="D9" t="n" s="0">
         <v>0.219457</v>
       </c>
-      <c r="D8" t="n" s="0">
+      <c r="E9" t="n" s="0">
         <v>0.826294</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n" s="0">
         <v>63</v>
       </c>
-      <c r="B9" t="n" s="0">
+      <c r="C10" t="n" s="0">
         <v>995.500000</v>
       </c>
-      <c r="C9" t="n" s="0">
+      <c r="D10" t="n" s="0">
         <v>0.085576</v>
       </c>
-      <c r="D9" t="n" s="0">
+      <c r="E10" t="n" s="0">
         <v>0.931803</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n" s="0">
         <v>10</v>
       </c>
-      <c r="B10" t="n" s="0">
+      <c r="C11" t="n" s="0">
         <v>27.000000</v>
       </c>
-      <c r="C10" t="n" s="0">
+      <c r="D11" t="n" s="0">
         <v>0.050965</v>
       </c>
-      <c r="D10" t="n" s="0">
+      <c r="E11" t="n" s="0">
         <v>0.959354</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n" s="0">
         <v>7</v>
       </c>
-      <c r="B11" t="n" s="0">
+      <c r="C12" t="n" s="0">
         <v>9.000000</v>
       </c>
-      <c r="C11" t="n" s="0">
+      <c r="D12" t="n" s="0">
         <v>0.845154</v>
       </c>
-      <c r="D11" t="n" s="0">
+      <c r="E12" t="n" s="0">
         <v>0.398025</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n" s="0">
         <v>69</v>
       </c>
-      <c r="B12" t="n" s="0">
+      <c r="C13" t="n" s="0">
         <v>1162.000000</v>
       </c>
-      <c r="C12" t="n" s="0">
+      <c r="D13" t="n" s="0">
         <v>0.272042</v>
       </c>
-      <c r="D12" t="n" s="0">
+      <c r="E13" t="n" s="0">
         <v>0.785590</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n" s="0">
         <v>70</v>
       </c>
-      <c r="B13" t="n" s="0">
+      <c r="C14" t="n" s="0">
         <v>994.000000</v>
       </c>
-      <c r="C13" t="n" s="0">
+      <c r="D14" t="n" s="0">
         <v>1.454267</v>
       </c>
-      <c r="D13" t="n" s="0">
+      <c r="E14" t="n" s="0">
         <v>0.145873</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n" s="0">
         <v>70</v>
       </c>
-      <c r="B14" t="n" s="0">
+      <c r="C15" t="n" s="0">
         <v>1207.000000</v>
       </c>
-      <c r="C14" t="n" s="0">
+      <c r="D15" t="n" s="0">
         <v>0.207752</v>
       </c>
-      <c r="D14" t="n" s="0">
+      <c r="E15" t="n" s="0">
         <v>0.835422</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n" s="0">
         <v>10</v>
       </c>
-      <c r="B15" t="n" s="0">
+      <c r="C16" t="n" s="0">
         <v>27.000000</v>
       </c>
-      <c r="C15" t="n" s="0">
+      <c r="D16" t="n" s="0">
         <v>0.050965</v>
       </c>
-      <c r="D15" t="n" s="0">
+      <c r="E16" t="n" s="0">
         <v>0.959354</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n" s="0">
         <v>10</v>
       </c>
-      <c r="B16" t="n" s="0">
+      <c r="C17" t="n" s="0">
         <v>27.000000</v>
       </c>
-      <c r="C16" t="n" s="0">
+      <c r="D17" t="n" s="0">
         <v>0.050965</v>
       </c>
-      <c r="D16" t="n" s="0">
+      <c r="E17" t="n" s="0">
         <v>0.959354</v>
       </c>
     </row>
